--- a/optimize_hyperparam/opt_results/opt_res_ml_26102023/CatBoostModel/261023_DF_opt_hyperparam_CatBoostModel_4-nstep.xlsx
+++ b/optimize_hyperparam/opt_results/opt_res_ml_26102023/CatBoostModel/261023_DF_opt_hyperparam_CatBoostModel_4-nstep.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,7 +523,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bình Phước</t>
+          <t>An Giang</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -532,10 +532,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19.83461514816873</v>
+        <v>7.238153391940525</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
         <v>6</v>
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06387745875999268</v>
+        <v>0.02127684127745039</v>
       </c>
       <c r="I2" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="J2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>484</v>
+        <v>584</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -571,22 +571,22 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>76.26628692163777</v>
+        <v>78.16280289875556</v>
       </c>
       <c r="O2" t="n">
-        <v>200</v>
+        <v>68</v>
       </c>
       <c r="P2" t="n">
-        <v>6.649535670357739</v>
+        <v>2.096851669194554</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.690782416791305</v>
+        <v>3.6344694873803</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>An Giang</t>
+          <t>BR Vũng Tàu</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8.064835380095138</v>
+        <v>11.78767716004954</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E3" t="n">
         <v>6</v>
@@ -612,16 +612,16 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04563714370222455</v>
+        <v>0.04066871601043333</v>
       </c>
       <c r="I3" t="n">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="J3" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K3" t="n">
-        <v>241</v>
+        <v>492</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -630,83 +630,3359 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.1,0.5,0.9</t>
+          <t>IsNone</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>11.93826478232349</v>
+        <v>45.65220291451131</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>215</v>
       </c>
       <c r="P3" t="n">
-        <v>5.285821760574895</v>
+        <v>6.778679279881895</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.365626360030262</v>
+        <v>4.690008048201951</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Bình Phước</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16.25182577222195</v>
+      </c>
+      <c r="D4" t="n">
+        <v>50</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.07450412664594944</v>
+      </c>
+      <c r="I4" t="n">
+        <v>190</v>
+      </c>
+      <c r="J4" t="n">
+        <v>14</v>
+      </c>
+      <c r="K4" t="n">
+        <v>452</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>5.865897731168019</v>
+      </c>
+      <c r="O4" t="n">
+        <v>216</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.340219723585065</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5.446840058643898</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Bình Thuận</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5.317866329408078</v>
+      </c>
+      <c r="D5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.001022283948010916</v>
+      </c>
+      <c r="I5" t="n">
+        <v>168</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>517</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>59.99375491114139</v>
+      </c>
+      <c r="O5" t="n">
+        <v>156</v>
+      </c>
+      <c r="P5" t="n">
+        <v>9.975895527609083</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>7.469722043406031</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Bình Định</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6.783272468041687</v>
+      </c>
+      <c r="D6" t="n">
+        <v>50</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.002354631652172999</v>
+      </c>
+      <c r="I6" t="n">
+        <v>118</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>815</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>93.40275921365303</v>
+      </c>
+      <c r="O6" t="n">
+        <v>50</v>
+      </c>
+      <c r="P6" t="n">
+        <v>8.185691023760924</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3.396940337849577</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Bạc Liêu</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5.330193011106577</v>
+      </c>
+      <c r="D7" t="n">
+        <v>50</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.06008276748968058</v>
+      </c>
+      <c r="I7" t="n">
+        <v>84</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>538</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>30.11580881790136</v>
+      </c>
+      <c r="O7" t="n">
+        <v>237</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4.410113460394492</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5.872514614436143</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Bắc Kạn</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1.21761569337361e-06</v>
+      </c>
+      <c r="D8" t="n">
+        <v>50</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.009407878399820161</v>
+      </c>
+      <c r="I8" t="n">
+        <v>79</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>397</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>59.37231550518559</v>
+      </c>
+      <c r="O8" t="n">
+        <v>31</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.875152109510076</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>8.264178938256213</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Bắc Giang</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2047916495144768</v>
+      </c>
+      <c r="D9" t="n">
+        <v>50</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.02428246946629829</v>
+      </c>
+      <c r="I9" t="n">
+        <v>180</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>297</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>55.54406384127271</v>
+      </c>
+      <c r="O9" t="n">
+        <v>33</v>
+      </c>
+      <c r="P9" t="n">
+        <v>7.813369604798748</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.4655110763101687</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Cao Bằng</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.005373682526986519</v>
+      </c>
+      <c r="D10" t="n">
+        <v>50</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.04330508505239816</v>
+      </c>
+      <c r="I10" t="n">
+        <v>59</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>731</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>17.68401069152459</v>
+      </c>
+      <c r="O10" t="n">
+        <v>18</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4.564089185710009</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>7.967396067670105</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Cà Mau</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>18.56494533921918</v>
+      </c>
+      <c r="D11" t="n">
+        <v>50</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.01004461932692665</v>
+      </c>
+      <c r="I11" t="n">
+        <v>79</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>81</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>54.91708779117531</v>
+      </c>
+      <c r="O11" t="n">
+        <v>251</v>
+      </c>
+      <c r="P11" t="n">
+        <v>8.661180365213587</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.6682496703452971</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Cần Thơ</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>4.538932499219027</v>
+      </c>
+      <c r="D12" t="n">
+        <v>50</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.001006356808755727</v>
+      </c>
+      <c r="I12" t="n">
+        <v>177</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>464</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>13.31701079781011</v>
+      </c>
+      <c r="O12" t="n">
+        <v>179</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.706528120770163</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>8.533123373241764</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Gia Lai</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>4.4763193324109</v>
+      </c>
+      <c r="D13" t="n">
+        <v>50</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.04291400687144037</v>
+      </c>
+      <c r="I13" t="n">
+        <v>81</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3</v>
+      </c>
+      <c r="K13" t="n">
+        <v>303</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>62.30548903015252</v>
+      </c>
+      <c r="O13" t="n">
+        <v>48</v>
+      </c>
+      <c r="P13" t="n">
+        <v>8.47923053493837</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3.326133153573537</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Hà Giang</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2.104061097603665e-06</v>
+      </c>
+      <c r="D14" t="n">
+        <v>50</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.02761127074838095</v>
+      </c>
+      <c r="I14" t="n">
+        <v>66</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>85.45694165889964</v>
+      </c>
+      <c r="O14" t="n">
+        <v>244</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.590063895171455</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4.205170365484967</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1.619582006169693</v>
+      </c>
+      <c r="D15" t="n">
+        <v>50</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.04956026739435843</v>
+      </c>
+      <c r="I15" t="n">
+        <v>188</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>345</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>86.4825793859608</v>
+      </c>
+      <c r="O15" t="n">
+        <v>127</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4.488234301524535</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.3997001956405148</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Hà Tĩnh</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3981009712884452</v>
+      </c>
+      <c r="D16" t="n">
+        <v>50</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.01485051725753306</v>
+      </c>
+      <c r="I16" t="n">
+        <v>125</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>951</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>63.59865391670166</v>
+      </c>
+      <c r="O16" t="n">
+        <v>51</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.769424653875233</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>7.104706886604498</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Hòa Bình</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.02453712295313034</v>
+      </c>
+      <c r="D17" t="n">
+        <v>50</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.009288498686677641</v>
+      </c>
+      <c r="I17" t="n">
+        <v>173</v>
+      </c>
+      <c r="J17" t="n">
+        <v>9</v>
+      </c>
+      <c r="K17" t="n">
+        <v>425</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>9.704826156067879</v>
+      </c>
+      <c r="O17" t="n">
+        <v>147</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.2492671551873893</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3.539057820024618</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Hưng Yên</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.01940487685945568</v>
+      </c>
+      <c r="D18" t="n">
+        <v>50</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.01240721870049229</v>
+      </c>
+      <c r="I18" t="n">
+        <v>61</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>114</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>56.47813463653921</v>
+      </c>
+      <c r="O18" t="n">
+        <v>197</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.217550187553423</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.953224030595562</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Hải Dương</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.01921941998705011</v>
+      </c>
+      <c r="D19" t="n">
+        <v>50</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.01129885739992885</v>
+      </c>
+      <c r="I19" t="n">
+        <v>65</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>300</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>85.55095004581364</v>
+      </c>
+      <c r="O19" t="n">
+        <v>67</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.102825374570041</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.1804151324461953</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Hải Phòng</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6394301763058899</v>
+      </c>
+      <c r="D20" t="n">
+        <v>50</v>
+      </c>
+      <c r="E20" t="n">
+        <v>6</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.02464043912555812</v>
+      </c>
+      <c r="I20" t="n">
+        <v>79</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>832</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>88.87281626415908</v>
+      </c>
+      <c r="O20" t="n">
+        <v>82</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.159275161258692</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.1002671496502093</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Khánh Hòa</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>16.2556727956624</v>
+      </c>
+      <c r="D21" t="n">
+        <v>50</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.009445781208876482</v>
+      </c>
+      <c r="I21" t="n">
+        <v>185</v>
+      </c>
+      <c r="J21" t="n">
+        <v>11</v>
+      </c>
+      <c r="K21" t="n">
+        <v>827</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>11.28598537277334</v>
+      </c>
+      <c r="O21" t="n">
+        <v>239</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3.986367278177983</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.2744213453565033</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Kiên Giang</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>6.157120541609519</v>
+      </c>
+      <c r="D22" t="n">
+        <v>50</v>
+      </c>
+      <c r="E22" t="n">
+        <v>6</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.01467225215570353</v>
+      </c>
+      <c r="I22" t="n">
+        <v>125</v>
+      </c>
+      <c r="J22" t="n">
+        <v>13</v>
+      </c>
+      <c r="K22" t="n">
+        <v>155</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>77.93994207500853</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>9.000984723814767</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.933082351590432</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Kon Tum</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2.450551141716226</v>
+      </c>
+      <c r="D23" t="n">
+        <v>50</v>
+      </c>
+      <c r="E23" t="n">
+        <v>6</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.04786267261271721</v>
+      </c>
+      <c r="I23" t="n">
+        <v>56</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>562</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>4.380825637359205</v>
+      </c>
+      <c r="O23" t="n">
+        <v>28</v>
+      </c>
+      <c r="P23" t="n">
+        <v>9.50289205519028</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>7.720125716570662</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Lai Châu</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>5.502480503529627e-07</v>
+      </c>
+      <c r="D24" t="n">
+        <v>50</v>
+      </c>
+      <c r="E24" t="n">
+        <v>6</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.02296349597910148</v>
+      </c>
+      <c r="I24" t="n">
+        <v>58</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3</v>
+      </c>
+      <c r="K24" t="n">
+        <v>134</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>2.296848488042548</v>
+      </c>
+      <c r="O24" t="n">
+        <v>254</v>
+      </c>
+      <c r="P24" t="n">
+        <v>7.705431284643697</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.682822893961768</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Long An</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>5.267937600196492</v>
+      </c>
+      <c r="D25" t="n">
+        <v>50</v>
+      </c>
+      <c r="E25" t="n">
+        <v>6</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.05721077994209157</v>
+      </c>
+      <c r="I25" t="n">
+        <v>159</v>
+      </c>
+      <c r="J25" t="n">
+        <v>13</v>
+      </c>
+      <c r="K25" t="n">
+        <v>503</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>76.25259868680297</v>
+      </c>
+      <c r="O25" t="n">
+        <v>177</v>
+      </c>
+      <c r="P25" t="n">
+        <v>8.56869352037568</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.233483849000624</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Lào Cai</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.004297648434461052</v>
+      </c>
+      <c r="D26" t="n">
+        <v>50</v>
+      </c>
+      <c r="E26" t="n">
+        <v>6</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.01112278700329107</v>
+      </c>
+      <c r="I26" t="n">
+        <v>157</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>568</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>79.23906583859244</v>
+      </c>
+      <c r="O26" t="n">
+        <v>255</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3.335536728448151</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.398438392461913</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Lâm Đồng</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.5412083965483637</v>
+      </c>
+      <c r="D27" t="n">
+        <v>50</v>
+      </c>
+      <c r="E27" t="n">
+        <v>6</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.001136404694179693</v>
+      </c>
+      <c r="I27" t="n">
+        <v>76</v>
+      </c>
+      <c r="J27" t="n">
+        <v>6</v>
+      </c>
+      <c r="K27" t="n">
+        <v>217</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>96.82625664870979</v>
+      </c>
+      <c r="O27" t="n">
+        <v>17</v>
+      </c>
+      <c r="P27" t="n">
+        <v>9.438481166333892</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>7.402357262514592</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Lạng Sơn</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.01495754495457435</v>
+      </c>
+      <c r="D28" t="n">
+        <v>50</v>
+      </c>
+      <c r="E28" t="n">
+        <v>6</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.01793034485013988</v>
+      </c>
+      <c r="I28" t="n">
+        <v>125</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>64</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>58.66673656875179</v>
+      </c>
+      <c r="O28" t="n">
+        <v>255</v>
+      </c>
+      <c r="P28" t="n">
+        <v>8.825175388483206</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4.136621586313613</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Nam Định</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.4615977663143305</v>
+      </c>
+      <c r="D29" t="n">
+        <v>50</v>
+      </c>
+      <c r="E29" t="n">
+        <v>6</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.09741381612873279</v>
+      </c>
+      <c r="I29" t="n">
+        <v>146</v>
+      </c>
+      <c r="J29" t="n">
+        <v>12</v>
+      </c>
+      <c r="K29" t="n">
+        <v>848</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>50.71519361318079</v>
+      </c>
+      <c r="O29" t="n">
+        <v>183</v>
+      </c>
+      <c r="P29" t="n">
+        <v>9.300745320205266</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.4851788976513562</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Nghệ An</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.2332724750607829</v>
+      </c>
+      <c r="D30" t="n">
+        <v>50</v>
+      </c>
+      <c r="E30" t="n">
+        <v>6</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.09518124460675263</v>
+      </c>
+      <c r="I30" t="n">
+        <v>180</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>994</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>20.18678727025391</v>
+      </c>
+      <c r="O30" t="n">
+        <v>48</v>
+      </c>
+      <c r="P30" t="n">
+        <v>7.256006398170257</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>9.853649091178331</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Ninh Bình</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.04829533497179112</v>
+      </c>
+      <c r="D31" t="n">
+        <v>50</v>
+      </c>
+      <c r="E31" t="n">
+        <v>6</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.02906076874548142</v>
+      </c>
+      <c r="I31" t="n">
+        <v>64</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>317</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>94.22994850121563</v>
+      </c>
+      <c r="O31" t="n">
+        <v>5</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2.769969744350993</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.4830946031125014</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Ninh Thuận</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>12.9688245161753</v>
+      </c>
+      <c r="D32" t="n">
+        <v>50</v>
+      </c>
+      <c r="E32" t="n">
+        <v>6</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.001691324455290434</v>
+      </c>
+      <c r="I32" t="n">
+        <v>69</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2</v>
+      </c>
+      <c r="K32" t="n">
+        <v>849</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>87.38052546593805</v>
+      </c>
+      <c r="O32" t="n">
+        <v>77</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.21225740994127</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>8.730210192334013</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Phú Thọ</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.04245987214830835</v>
+      </c>
+      <c r="D33" t="n">
+        <v>50</v>
+      </c>
+      <c r="E33" t="n">
+        <v>6</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.001314411313175621</v>
+      </c>
+      <c r="I33" t="n">
+        <v>61</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>912</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>26.04932206322549</v>
+      </c>
+      <c r="O33" t="n">
+        <v>99</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5.208704174530516</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3.552710007572889</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Phú Yên</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>9.201173306874608</v>
+      </c>
+      <c r="D34" t="n">
+        <v>50</v>
+      </c>
+      <c r="E34" t="n">
+        <v>6</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.05145564908149886</v>
+      </c>
+      <c r="I34" t="n">
+        <v>113</v>
+      </c>
+      <c r="J34" t="n">
+        <v>13</v>
+      </c>
+      <c r="K34" t="n">
+        <v>412</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>76.99455418679749</v>
+      </c>
+      <c r="O34" t="n">
+        <v>106</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3.826297859630666</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>6.146401084325304</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Quảng Bình</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1.533827274537404</v>
+      </c>
+      <c r="D35" t="n">
+        <v>50</v>
+      </c>
+      <c r="E35" t="n">
+        <v>6</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.01743872344124393</v>
+      </c>
+      <c r="I35" t="n">
+        <v>63</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" t="n">
+        <v>186</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>42.06946200291515</v>
+      </c>
+      <c r="O35" t="n">
+        <v>215</v>
+      </c>
+      <c r="P35" t="n">
+        <v>8.381698050869561</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>7.536355566439084</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Quảng Nam</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>3.578727939264485</v>
+      </c>
+      <c r="D36" t="n">
+        <v>50</v>
+      </c>
+      <c r="E36" t="n">
+        <v>6</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.008070057274670441</v>
+      </c>
+      <c r="I36" t="n">
+        <v>86</v>
+      </c>
+      <c r="J36" t="n">
+        <v>13</v>
+      </c>
+      <c r="K36" t="n">
+        <v>842</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>49.88644728816519</v>
+      </c>
+      <c r="O36" t="n">
+        <v>7</v>
+      </c>
+      <c r="P36" t="n">
+        <v>7.234055440247141</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.7807882191204345</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Quảng Ngãi</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>3.088401250075977</v>
+      </c>
+      <c r="D37" t="n">
+        <v>50</v>
+      </c>
+      <c r="E37" t="n">
+        <v>6</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.01535150344201872</v>
+      </c>
+      <c r="I37" t="n">
+        <v>50</v>
+      </c>
+      <c r="J37" t="n">
+        <v>15</v>
+      </c>
+      <c r="K37" t="n">
+        <v>244</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>16.8496668156085</v>
+      </c>
+      <c r="O37" t="n">
+        <v>68</v>
+      </c>
+      <c r="P37" t="n">
+        <v>6.551438824931965</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>8.672754211157784</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>Quảng Ninh</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CatBoost</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1.990758467843691</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>6</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-4,-5,-6</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.02352332043395897</v>
-      </c>
-      <c r="I4" t="n">
-        <v>155</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1.029211710794628</v>
+      </c>
+      <c r="D38" t="n">
+        <v>50</v>
+      </c>
+      <c r="E38" t="n">
+        <v>6</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.05820200580798664</v>
+      </c>
+      <c r="I38" t="n">
+        <v>52</v>
+      </c>
+      <c r="J38" t="n">
         <v>15</v>
       </c>
-      <c r="K4" t="n">
-        <v>96</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>quantile</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
+      <c r="K38" t="n">
+        <v>563</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>IsNone</t>
         </is>
       </c>
-      <c r="N4" t="n">
-        <v>64.25792446681521</v>
-      </c>
-      <c r="O4" t="n">
-        <v>157</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.862217853684312</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.482879736875473</v>
+      <c r="N38" t="n">
+        <v>37.5921042883821</v>
+      </c>
+      <c r="O38" t="n">
+        <v>136</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3.154085453557884</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>8.986622990776405</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Quảng Trị</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1.678681300034378</v>
+      </c>
+      <c r="D39" t="n">
+        <v>50</v>
+      </c>
+      <c r="E39" t="n">
+        <v>6</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.07323329878454773</v>
+      </c>
+      <c r="I39" t="n">
+        <v>176</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2</v>
+      </c>
+      <c r="K39" t="n">
+        <v>371</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>99.49150598995044</v>
+      </c>
+      <c r="O39" t="n">
+        <v>85</v>
+      </c>
+      <c r="P39" t="n">
+        <v>8.675326100364103</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5.892930510090478</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Sóc Trăng</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>10.08907954039132</v>
+      </c>
+      <c r="D40" t="n">
+        <v>50</v>
+      </c>
+      <c r="E40" t="n">
+        <v>6</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.01200595153040015</v>
+      </c>
+      <c r="I40" t="n">
+        <v>105</v>
+      </c>
+      <c r="J40" t="n">
+        <v>9</v>
+      </c>
+      <c r="K40" t="n">
+        <v>481</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>14.56327662048136</v>
+      </c>
+      <c r="O40" t="n">
+        <v>232</v>
+      </c>
+      <c r="P40" t="n">
+        <v>7.978544851633212</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>9.238497990808142</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Sơn La</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>2.104954183454044e-07</v>
+      </c>
+      <c r="D41" t="n">
+        <v>50</v>
+      </c>
+      <c r="E41" t="n">
+        <v>6</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.022077446266102</v>
+      </c>
+      <c r="I41" t="n">
+        <v>138</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>687</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>78.01351530849098</v>
+      </c>
+      <c r="O41" t="n">
+        <v>148</v>
+      </c>
+      <c r="P41" t="n">
+        <v>8.457964504807274</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3.501900285209995</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>TT Huế</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>2.508236064302806</v>
+      </c>
+      <c r="D42" t="n">
+        <v>50</v>
+      </c>
+      <c r="E42" t="n">
+        <v>6</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.002116884245548537</v>
+      </c>
+      <c r="I42" t="n">
+        <v>126</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" t="n">
+        <v>289</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>64.71720752244093</v>
+      </c>
+      <c r="O42" t="n">
+        <v>111</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3.358064119122343</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>8.771333158657288</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Thanh Hóa</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.1541345568370517</v>
+      </c>
+      <c r="D43" t="n">
+        <v>50</v>
+      </c>
+      <c r="E43" t="n">
+        <v>6</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.05016414453515573</v>
+      </c>
+      <c r="I43" t="n">
+        <v>130</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>788</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>33.60169193376484</v>
+      </c>
+      <c r="O43" t="n">
+        <v>26</v>
+      </c>
+      <c r="P43" t="n">
+        <v>8.290200179013837</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5.193590091816743</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Thái Bình</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0.2550216615401793</v>
+      </c>
+      <c r="D44" t="n">
+        <v>50</v>
+      </c>
+      <c r="E44" t="n">
+        <v>6</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.07899274467116192</v>
+      </c>
+      <c r="I44" t="n">
+        <v>170</v>
+      </c>
+      <c r="J44" t="n">
+        <v>10</v>
+      </c>
+      <c r="K44" t="n">
+        <v>238</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>19.1211038755174</v>
+      </c>
+      <c r="O44" t="n">
+        <v>128</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3.555923887035703</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>8.678425577891193</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Thái Nguyên</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0.02177563616071267</v>
+      </c>
+      <c r="D45" t="n">
+        <v>50</v>
+      </c>
+      <c r="E45" t="n">
+        <v>6</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.06930021750540613</v>
+      </c>
+      <c r="I45" t="n">
+        <v>66</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2</v>
+      </c>
+      <c r="K45" t="n">
+        <v>987</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>40.15296380891821</v>
+      </c>
+      <c r="O45" t="n">
+        <v>55</v>
+      </c>
+      <c r="P45" t="n">
+        <v>6.281684285961857</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>7.960540894544162</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Tiền Giang</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>9.419778849576065</v>
+      </c>
+      <c r="D46" t="n">
+        <v>50</v>
+      </c>
+      <c r="E46" t="n">
+        <v>6</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.0138531297698142</v>
+      </c>
+      <c r="I46" t="n">
+        <v>59</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3</v>
+      </c>
+      <c r="K46" t="n">
+        <v>183</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>79.0540900615424</v>
+      </c>
+      <c r="O46" t="n">
+        <v>153</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5.50384702542894</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.7460997013922618</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Trà Vinh</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>4.248690827830469</v>
+      </c>
+      <c r="D47" t="n">
+        <v>50</v>
+      </c>
+      <c r="E47" t="n">
+        <v>6</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.0269506636120151</v>
+      </c>
+      <c r="I47" t="n">
+        <v>113</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" t="n">
+        <v>770</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>89.1083054767838</v>
+      </c>
+      <c r="O47" t="n">
+        <v>149</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.6302556067467053</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4.585600958285822</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Tuyên Quang</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>3.596365521763874e-06</v>
+      </c>
+      <c r="D48" t="n">
+        <v>50</v>
+      </c>
+      <c r="E48" t="n">
+        <v>6</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.05149956542003062</v>
+      </c>
+      <c r="I48" t="n">
+        <v>73</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" t="n">
+        <v>800</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>93.30413615146864</v>
+      </c>
+      <c r="O48" t="n">
+        <v>182</v>
+      </c>
+      <c r="P48" t="n">
+        <v>9.233205690582373</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>9.974235639207514</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Tây Ninh</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>8.936302838743121</v>
+      </c>
+      <c r="D49" t="n">
+        <v>50</v>
+      </c>
+      <c r="E49" t="n">
+        <v>6</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.03537344096001359</v>
+      </c>
+      <c r="I49" t="n">
+        <v>143</v>
+      </c>
+      <c r="J49" t="n">
+        <v>2</v>
+      </c>
+      <c r="K49" t="n">
+        <v>139</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>12.01965082241039</v>
+      </c>
+      <c r="O49" t="n">
+        <v>10</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.1205885762443799</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3.365206896632281</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Vĩnh Phúc</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0.2224768178252177</v>
+      </c>
+      <c r="D50" t="n">
+        <v>50</v>
+      </c>
+      <c r="E50" t="n">
+        <v>6</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.01554156925939965</v>
+      </c>
+      <c r="I50" t="n">
+        <v>61</v>
+      </c>
+      <c r="J50" t="n">
+        <v>11</v>
+      </c>
+      <c r="K50" t="n">
+        <v>538</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>98.08510292711209</v>
+      </c>
+      <c r="O50" t="n">
+        <v>253</v>
+      </c>
+      <c r="P50" t="n">
+        <v>2.125494414144449</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>7.228057577795497</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Yên Bái</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0.02189699254791598</v>
+      </c>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="n">
+        <v>6</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.05210150463452283</v>
+      </c>
+      <c r="I51" t="n">
+        <v>63</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2</v>
+      </c>
+      <c r="K51" t="n">
+        <v>28</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>38.26525777069254</v>
+      </c>
+      <c r="O51" t="n">
+        <v>195</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2.766144959560048</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>8.086515857032298</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Điện Biên</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0.005147773262049832</v>
+      </c>
+      <c r="D52" t="n">
+        <v>50</v>
+      </c>
+      <c r="E52" t="n">
+        <v>6</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.02372992277442322</v>
+      </c>
+      <c r="I52" t="n">
+        <v>173</v>
+      </c>
+      <c r="J52" t="n">
+        <v>3</v>
+      </c>
+      <c r="K52" t="n">
+        <v>264</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>91.8062004306272</v>
+      </c>
+      <c r="O52" t="n">
+        <v>175</v>
+      </c>
+      <c r="P52" t="n">
+        <v>7.130064740634863</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4.562177109863695</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Đà Nẵng</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>9.051136646316786</v>
+      </c>
+      <c r="D53" t="n">
+        <v>50</v>
+      </c>
+      <c r="E53" t="n">
+        <v>6</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.002472024869064588</v>
+      </c>
+      <c r="I53" t="n">
+        <v>116</v>
+      </c>
+      <c r="J53" t="n">
+        <v>13</v>
+      </c>
+      <c r="K53" t="n">
+        <v>4</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>97.78569893353276</v>
+      </c>
+      <c r="O53" t="n">
+        <v>86</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.267123548102306</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.1785256345917958</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Đắk Nông</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>3.79347086951018</v>
+      </c>
+      <c r="D54" t="n">
+        <v>50</v>
+      </c>
+      <c r="E54" t="n">
+        <v>6</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.0254296517241816</v>
+      </c>
+      <c r="I54" t="n">
+        <v>70</v>
+      </c>
+      <c r="J54" t="n">
+        <v>3</v>
+      </c>
+      <c r="K54" t="n">
+        <v>211</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>32.45316662808096</v>
+      </c>
+      <c r="O54" t="n">
+        <v>255</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2.689217807685845</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5.591168102339365</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Đắk Lắk</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>5.990273354897347</v>
+      </c>
+      <c r="D55" t="n">
+        <v>50</v>
+      </c>
+      <c r="E55" t="n">
+        <v>6</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.04398267887227362</v>
+      </c>
+      <c r="I55" t="n">
+        <v>193</v>
+      </c>
+      <c r="J55" t="n">
+        <v>14</v>
+      </c>
+      <c r="K55" t="n">
+        <v>977</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>94.74166563142951</v>
+      </c>
+      <c r="O55" t="n">
+        <v>3</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4.694841953184286</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3.500212243831309</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Đồng Tháp</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>6.809338057913449</v>
+      </c>
+      <c r="D56" t="n">
+        <v>50</v>
+      </c>
+      <c r="E56" t="n">
+        <v>6</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>-4,-5,-6</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.0975016787478501</v>
+      </c>
+      <c r="I56" t="n">
+        <v>182</v>
+      </c>
+      <c r="J56" t="n">
+        <v>3</v>
+      </c>
+      <c r="K56" t="n">
+        <v>86</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>91.3265014049466</v>
+      </c>
+      <c r="O56" t="n">
+        <v>122</v>
+      </c>
+      <c r="P56" t="n">
+        <v>8.277048226216584</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1.376773153932662</v>
       </c>
     </row>
   </sheetData>
